--- a/Recycling/A2/Baseline/A2_Max_target.xlsx
+++ b/Recycling/A2/Baseline/A2_Max_target.xlsx
@@ -138,7 +138,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
